--- a/中期_简单回归/data/16-19.xlsx
+++ b/中期_简单回归/data/16-19.xlsx
@@ -216,20 +216,27 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="###,###,###,###,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="###,###,###,###,##0.0000_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -257,8 +264,90 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,38 +361,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,14 +386,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,63 +407,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,13 +436,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,13 +532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,19 +544,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,61 +568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,37 +580,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,6 +608,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -626,21 +640,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -651,50 +650,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,16 +677,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,137 +754,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -879,24 +893,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1220,7 +1243,7 @@
   <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1228,7 +1251,6 @@
     <col min="8" max="11" width="9" style="1"/>
     <col min="12" max="12" width="9.375"/>
     <col min="16" max="16" width="12.625"/>
-    <col min="23" max="23" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1" ht="51.75" spans="1:20">
@@ -1250,46 +1272,46 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1297,20 +1319,20 @@
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>6.5527</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>0.387725</v>
       </c>
-      <c r="D2" s="5">
-        <v>1.7542855</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D2" s="6">
+        <v>1.63052521052632</v>
+      </c>
+      <c r="E2" s="6">
         <v>0.543157894736842</v>
       </c>
-      <c r="F2" s="5">
-        <v>0.240645161290323</v>
+      <c r="F2" s="6">
+        <v>0.342903225806452</v>
       </c>
       <c r="G2" s="1">
         <v>52.7</v>
@@ -1321,37 +1343,37 @@
       <c r="I2" s="1">
         <v>-2.94</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="9">
         <v>10</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="10">
         <v>1</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="11">
         <v>11.1</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="6">
         <v>5.9</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="12">
         <v>1.6</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="6">
         <v>-5.9</v>
       </c>
       <c r="P2">
         <v>11.709632845527</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="12">
         <v>15.2</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="12">
         <v>13.3</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="6">
         <v>2.49355</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="6">
         <v>2.321</v>
       </c>
     </row>
@@ -1359,20 +1381,20 @@
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>6.5311</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>0.392330952380952</v>
       </c>
-      <c r="D3" s="5">
-        <v>1.63052521052632</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="6">
+        <v>1.62998985</v>
+      </c>
+      <c r="E3" s="6">
         <v>0.534</v>
       </c>
-      <c r="F3" s="5">
-        <v>0.342903225806452</v>
+      <c r="F3" s="6">
+        <v>0.375172413793103</v>
       </c>
       <c r="G3" s="1">
         <v>52.6</v>
@@ -1383,37 +1405,37 @@
       <c r="I3" s="1">
         <v>-15.25</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="9">
         <v>10.2</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="10">
         <v>3</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="11">
         <v>10.2</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="6">
         <v>5.865724</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="12">
         <v>1.8</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="6">
         <v>-5.3</v>
       </c>
       <c r="P3">
         <v>12.5957003506955</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="12">
         <v>18.6</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="12">
         <v>14</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="6">
         <v>2.41963333333333</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="6">
         <v>2.29435</v>
       </c>
     </row>
@@ -1421,20 +1443,20 @@
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>6.5064</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>0.397340476190476</v>
       </c>
-      <c r="D4" s="5">
-        <v>1.62998985</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="6">
+        <v>1.73021427272727</v>
+      </c>
+      <c r="E4" s="6">
         <v>0.656363636363636</v>
       </c>
-      <c r="F4" s="5">
-        <v>0.375172413793103</v>
+      <c r="F4" s="6">
+        <v>0.362258064516129</v>
       </c>
       <c r="G4" s="1">
         <v>50.8</v>
@@ -1445,37 +1467,37 @@
       <c r="I4" s="1">
         <v>-21.07</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="9">
         <v>10.2</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="10">
         <v>3</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="11">
         <v>10.2</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="6">
         <v>4.906937</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="12">
         <v>2.3</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="6">
         <v>-4.9</v>
       </c>
       <c r="P4">
         <v>12.0762832722507</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="12">
         <v>17.4</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="12">
         <v>13.3</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="6">
         <v>2.46118260869565</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="6">
         <v>2.12655652173913</v>
       </c>
     </row>
@@ -1483,20 +1505,20 @@
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>6.4762</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>0.398645238095238</v>
       </c>
-      <c r="D5" s="5">
-        <v>1.73021427272727</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="6">
+        <v>1.78443657142857</v>
+      </c>
+      <c r="E5" s="6">
         <v>0.555714285714286</v>
       </c>
-      <c r="F5" s="5">
-        <v>0.362258064516129</v>
+      <c r="F5" s="6">
+        <v>0.365333333333333</v>
       </c>
       <c r="G5" s="1">
         <v>51.5</v>
@@ -1507,37 +1529,37 @@
       <c r="I5" s="1">
         <v>-13.03</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="9">
         <v>10.7</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="10">
         <v>6.2</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="11">
         <v>10.5</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="6">
         <v>6.8</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="12">
         <v>2.301391</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="6">
         <v>-4.3</v>
       </c>
       <c r="P5">
         <v>12.8101133130335</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="12">
         <v>22.1</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="12">
         <v>13.4</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="6">
         <v>2.494385</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="6">
         <v>2.21599</v>
       </c>
     </row>
@@ -1545,20 +1567,20 @@
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>6.5315</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>0.4053175</v>
       </c>
-      <c r="D6" s="5">
-        <v>1.78443657142857</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="6">
+        <v>1.769232</v>
+      </c>
+      <c r="E6" s="6">
         <v>0.591428571428571</v>
       </c>
-      <c r="F6" s="5">
-        <v>0.365333333333333</v>
+      <c r="F6" s="6">
+        <v>0.36516129032258</v>
       </c>
       <c r="G6" s="1">
         <v>51.6</v>
@@ -1569,37 +1591,37 @@
       <c r="I6" s="1">
         <v>-11.04</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="9">
         <v>10.5</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="10">
         <v>7.2</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="11">
         <v>10.1</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="6">
         <v>6</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="12">
         <v>2.327865</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="6">
         <v>-3.4</v>
       </c>
       <c r="P6">
         <v>12.5093784645687</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="12">
         <v>22.9</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="12">
         <v>12.8</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="6">
         <v>2.43247619047619</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="6">
         <v>2.3139619047619</v>
       </c>
     </row>
@@ -1607,20 +1629,20 @@
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>6.5874</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>0.415725</v>
       </c>
-      <c r="D7" s="5">
-        <v>1.769232</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="6">
+        <v>1.77548677272727</v>
+      </c>
+      <c r="E7" s="6">
         <v>0.552272727272727</v>
       </c>
-      <c r="F7" s="5">
-        <v>0.36516129032258</v>
+      <c r="F7" s="6">
+        <v>0.377666666666667</v>
       </c>
       <c r="G7" s="1">
         <v>51.1</v>
@@ -1631,37 +1653,37 @@
       <c r="I7" s="1">
         <v>-10.16</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="9">
         <v>9.6</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="10">
         <v>7</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="11">
         <v>10</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="6">
         <v>6</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="12">
         <v>2.038999</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="6">
         <v>-2.8</v>
       </c>
       <c r="P7">
         <v>11.9912100795323</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="12">
         <v>23.7</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="12">
         <v>11.8</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="6">
         <v>2.4580619047619</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="6">
         <v>2.39817619047619</v>
       </c>
     </row>
@@ -1669,20 +1691,20 @@
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>6.6774</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>0.438192857142857</v>
       </c>
-      <c r="D8" s="5">
-        <v>1.77548677272727</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="6">
+        <v>1.83411825</v>
+      </c>
+      <c r="E8" s="6">
         <v>0.5135</v>
       </c>
-      <c r="F8" s="5">
-        <v>0.377666666666667</v>
+      <c r="F8" s="6">
+        <v>0.391612903225807</v>
       </c>
       <c r="G8" s="1">
         <v>51.2</v>
@@ -1693,37 +1715,37 @@
       <c r="I8" s="1">
         <v>-9.57</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="9">
         <v>9</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="10">
         <v>6.1</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="11">
         <v>10.6</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="6">
         <v>6.2</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="12">
         <v>1.879503</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="6">
         <v>-2.6</v>
       </c>
       <c r="P8">
         <v>11.6984312560425</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="12">
         <v>24.6</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="12">
         <v>11.8</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="6">
         <v>2.47196190476191</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="6">
         <v>2.29617619047619</v>
       </c>
     </row>
@@ -1731,20 +1753,20 @@
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>6.6474</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>0.442956818181818</v>
       </c>
-      <c r="D9" s="5">
-        <v>1.83411825</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="6">
+        <v>1.84951873913043</v>
+      </c>
+      <c r="E9" s="6">
         <v>0.568260869565217</v>
       </c>
-      <c r="F9" s="5">
-        <v>0.391612903225807</v>
+      <c r="F9" s="6">
+        <v>0.396774193548387</v>
       </c>
       <c r="G9" s="1">
         <v>51.5</v>
@@ -1755,37 +1777,37 @@
       <c r="I9" s="1">
         <v>-9.09</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="9">
         <v>8.1</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="10">
         <v>5.3</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="11">
         <v>10.2</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>6</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="12">
         <v>1.765113</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="6">
         <v>-1.7</v>
       </c>
       <c r="P9">
         <v>11.4434087014693</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="12">
         <v>25.4</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="12">
         <v>10.2</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="6">
         <v>2.4825652173913</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="6">
         <v>2.14600434782609</v>
       </c>
     </row>
@@ -1793,20 +1815,20 @@
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>6.6715</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>0.449560909090909</v>
       </c>
-      <c r="D10" s="5">
-        <v>1.84951873913043</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="6">
+        <v>1.82674028571429</v>
+      </c>
+      <c r="E10" s="6">
         <v>0.593333333333333</v>
       </c>
-      <c r="F10" s="5">
-        <v>0.396774193548387</v>
+      <c r="F10" s="6">
+        <v>0.396333333333333</v>
       </c>
       <c r="G10" s="1">
         <v>51.4</v>
@@ -1817,37 +1839,37 @@
       <c r="I10" s="1">
         <v>-8.37</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="9">
         <v>8.1</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="10">
         <v>5.4</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="11">
         <v>10.6</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>6.3</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="12">
         <v>1.339773</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="6">
         <v>-0.8</v>
       </c>
       <c r="P10">
         <v>11.600777660199</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="12">
         <v>25.3</v>
       </c>
-      <c r="R10" s="10">
+      <c r="R10" s="12">
         <v>11.4</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="6">
         <v>2.51321428571429</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="6">
         <v>2.15774761904762</v>
       </c>
     </row>
@@ -1855,20 +1877,20 @@
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>6.7442</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>0.457582380952381</v>
       </c>
-      <c r="D11" s="5">
-        <v>1.82674028571429</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D11" s="6">
+        <v>1.81845466666667</v>
+      </c>
+      <c r="E11" s="6">
         <v>0.6595</v>
       </c>
-      <c r="F11" s="5">
-        <v>0.396333333333333</v>
+      <c r="F11" s="6">
+        <v>0.392608695652174</v>
       </c>
       <c r="G11" s="1">
         <v>51.7</v>
@@ -1879,37 +1901,37 @@
       <c r="I11" s="1">
         <v>-8.63</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="9">
         <v>8.2</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="10">
         <v>5.8</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="11">
         <v>10.7</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>6.1</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="12">
         <v>1.920226</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="6">
         <v>0.1</v>
       </c>
       <c r="P11">
         <v>11.7379609496123</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="12">
         <v>24.7</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11" s="12">
         <v>11.5</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="6">
         <v>2.6741</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="6">
         <v>2.15494444444444</v>
       </c>
     </row>
@@ -1917,20 +1939,20 @@
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>6.8375</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="6">
         <v>0.458805</v>
       </c>
-      <c r="D12" s="5">
-        <v>1.81845466666667</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="6">
+        <v>1.86973266666667</v>
+      </c>
+      <c r="E12" s="6">
         <v>0.736</v>
       </c>
-      <c r="F12" s="5">
-        <v>0.392608695652174</v>
+      <c r="F12" s="6">
+        <v>0.405454545454546</v>
       </c>
       <c r="G12" s="1">
         <v>53.3</v>
@@ -1941,37 +1963,37 @@
       <c r="I12" s="1">
         <v>-8.56</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="9">
         <v>8.3</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="10">
         <v>6.6</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="11">
         <v>10</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>6.1</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="12">
         <v>2.095947</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="6">
         <v>1.2</v>
       </c>
       <c r="P12">
         <v>11.9194188343246</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="12">
         <v>23.9</v>
       </c>
-      <c r="R12" s="10">
+      <c r="R12" s="12">
         <v>11.6</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="6">
         <v>2.70374090909091</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12" s="6">
         <v>2.18007727272727</v>
       </c>
     </row>
@@ -1979,20 +2001,20 @@
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>6.9182</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>0.6315605</v>
       </c>
-      <c r="D13" s="5">
-        <v>1.86973266666667</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="6">
+        <v>1.97124238095238</v>
+      </c>
+      <c r="E13" s="6">
         <v>0.866190476190476</v>
       </c>
-      <c r="F13" s="5">
-        <v>0.405454545454546</v>
+      <c r="F13" s="6">
+        <v>0.541363636363636</v>
       </c>
       <c r="G13" s="1">
         <v>53.3</v>
@@ -2003,37 +2025,37 @@
       <c r="I13" s="1">
         <v>-7.89</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="9">
         <v>8.3</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="10">
         <v>6.5</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="11">
         <v>10.8</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>6.2</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="12">
         <v>2.252258</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="6">
         <v>3.3</v>
       </c>
       <c r="P13">
         <v>12.3913465790964</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="Q13" s="12">
         <v>22.7</v>
       </c>
-      <c r="R13" s="10">
+      <c r="R13" s="12">
         <v>11.4</v>
       </c>
-      <c r="S13" s="5">
+      <c r="S13" s="6">
         <v>3.01145217391304</v>
       </c>
-      <c r="T13" s="5">
+      <c r="T13" s="6">
         <v>2.66734347826087</v>
       </c>
     </row>
@@ -2041,20 +2063,20 @@
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>6.8918</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>0.720819523809524</v>
       </c>
-      <c r="D14" s="5">
-        <v>1.97124238095238</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14" s="6">
+        <v>1.99081525</v>
+      </c>
+      <c r="E14" s="6">
         <v>0.8255</v>
       </c>
-      <c r="F14" s="5">
-        <v>0.541363636363636</v>
+      <c r="F14" s="6">
+        <v>0.650454545454546</v>
       </c>
       <c r="G14" s="1">
         <v>53.6</v>
@@ -2065,37 +2087,37 @@
       <c r="I14" s="1">
         <v>-7.73</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="9">
         <v>8.1</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="10">
         <v>6.9</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="11">
         <v>10.9</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>6</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="12">
         <v>2.076545</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="6">
         <v>5.5</v>
       </c>
       <c r="P14">
         <v>12.1124845891949</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="12">
         <v>21.4</v>
       </c>
-      <c r="R14" s="10">
+      <c r="R14" s="12">
         <v>11.3</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="6">
         <v>2.67601578947368</v>
       </c>
-      <c r="T14" s="5">
+      <c r="T14" s="6">
         <v>2.69265789473684</v>
       </c>
     </row>
@@ -2103,20 +2125,20 @@
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>6.8713</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <v>0.7163665</v>
       </c>
-      <c r="D15" s="5">
-        <v>1.99081525</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="D15" s="6">
+        <v>2.04241442105263</v>
+      </c>
+      <c r="E15" s="6">
         <v>0.820526315789474</v>
       </c>
-      <c r="F15" s="5">
-        <v>0.650454545454546</v>
+      <c r="F15" s="6">
+        <v>0.6555</v>
       </c>
       <c r="G15" s="1">
         <v>53.9</v>
@@ -2127,37 +2149,37 @@
       <c r="I15" s="1">
         <v>6.42</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="9">
         <v>8.9</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="10">
         <v>8.9</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="11">
         <v>9.5</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="6">
         <v>2.93725</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="12">
         <v>2.549055</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="6">
         <v>6.9</v>
       </c>
       <c r="P15">
         <v>11.9839757141547</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="12">
         <v>14.5</v>
       </c>
-      <c r="R15" s="10">
+      <c r="R15" s="12">
         <v>10.7</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15" s="6">
         <v>3.05551578947368</v>
       </c>
-      <c r="T15" s="5">
+      <c r="T15" s="6">
         <v>2.78447894736842</v>
       </c>
     </row>
@@ -2165,20 +2187,20 @@
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>6.8932</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="6">
         <v>0.870638695652174</v>
       </c>
-      <c r="D16" s="5">
-        <v>2.04241442105263</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="D16" s="6">
+        <v>2.0823057826087</v>
+      </c>
+      <c r="E16" s="6">
         <v>1.0104347826087</v>
       </c>
-      <c r="F16" s="5">
-        <v>0.6555</v>
+      <c r="F16" s="6">
+        <v>0.786521739130435</v>
       </c>
       <c r="G16" s="1">
         <v>53.4</v>
@@ -2189,37 +2211,37 @@
       <c r="I16" s="1">
         <v>2.75</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="9">
         <v>8.9</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="10">
         <v>8.9</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="11">
         <v>9.5</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="6">
         <v>10.322581</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="12">
         <v>0.8</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="6">
         <v>7.8</v>
       </c>
       <c r="P16">
         <v>12.0568656915769</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="Q16" s="12">
         <v>21.4</v>
       </c>
-      <c r="R16" s="10">
+      <c r="R16" s="12">
         <v>10.4</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="6">
         <v>3.46846956521739</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T16" s="6">
         <v>2.8334</v>
       </c>
     </row>
@@ -2227,20 +2249,20 @@
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="5">
         <v>6.8845</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <v>0.946944444444445</v>
       </c>
-      <c r="D17" s="5">
-        <v>2.0823057826087</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="D17" s="6">
+        <v>2.06846936842105</v>
+      </c>
+      <c r="E17" s="6">
         <v>1.04210526315789</v>
       </c>
-      <c r="F17" s="5">
-        <v>0.786521739130435</v>
+      <c r="F17" s="6">
+        <v>0.906</v>
       </c>
       <c r="G17" s="1">
         <v>53.7</v>
@@ -2251,37 +2273,37 @@
       <c r="I17" s="1">
         <v>7.21</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="9">
         <v>9.2</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="10">
         <v>9.1</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="11">
         <v>10.9</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="6">
         <v>7.6</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="12">
         <v>0.9</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="6">
         <v>7.6</v>
       </c>
       <c r="P17">
         <v>11.7348096760759</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="12">
         <v>18.8</v>
       </c>
-      <c r="R17" s="10">
+      <c r="R17" s="12">
         <v>10.1</v>
       </c>
-      <c r="S17" s="5">
+      <c r="S17" s="6">
         <v>3.3117</v>
       </c>
-      <c r="T17" s="5">
+      <c r="T17" s="6">
         <v>3.05648421052632</v>
       </c>
     </row>
@@ -2289,20 +2311,20 @@
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="5">
         <v>6.8827</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="6">
         <v>0.947998095238095</v>
       </c>
-      <c r="D18" s="5">
-        <v>2.06846936842105</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="D18" s="6">
+        <v>2.09368113636364</v>
+      </c>
+      <c r="E18" s="6">
         <v>1.12272727272727</v>
       </c>
-      <c r="F18" s="5">
-        <v>0.906</v>
+      <c r="F18" s="6">
+        <v>0.906521739130435</v>
       </c>
       <c r="G18" s="1">
         <v>53.6</v>
@@ -2313,37 +2335,37 @@
       <c r="I18" s="1">
         <v>7.05</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="9">
         <v>8.9</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="10">
         <v>9.3</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="11">
         <v>10.7</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="6">
         <v>6.5</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="12">
         <v>1.2</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="6">
         <v>6.4</v>
       </c>
       <c r="P18">
         <v>12.0664519333039</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="Q18" s="12">
         <v>18.5</v>
       </c>
-      <c r="R18" s="10">
+      <c r="R18" s="12">
         <v>9.8</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="6">
         <v>3.2629</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="6">
         <v>3.43801904761905</v>
       </c>
     </row>
@@ -2351,20 +2373,20 @@
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="5">
         <v>6.8019</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="6">
         <v>1.11833363636364</v>
       </c>
-      <c r="D19" s="5">
-        <v>2.09368113636364</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="D19" s="6">
+        <v>2.13177954545454</v>
+      </c>
+      <c r="E19" s="6">
         <v>1.20090909090909</v>
       </c>
-      <c r="F19" s="5">
-        <v>0.906521739130435</v>
+      <c r="F19" s="6">
+        <v>1.04181818181818</v>
       </c>
       <c r="G19" s="1">
         <v>53.8</v>
@@ -2375,37 +2397,37 @@
       <c r="I19" s="1">
         <v>7.18</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="9">
         <v>8.6</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="10">
         <v>8.8</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="11">
         <v>10.7</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="6">
         <v>6.5</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="12">
         <v>1.5</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="6">
         <v>5.5</v>
       </c>
       <c r="P19">
         <v>12.2029419116396</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q19" s="12">
         <v>17</v>
       </c>
-      <c r="R19" s="10">
+      <c r="R19" s="12">
         <v>9.1</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19" s="6">
         <v>3.45688636363636</v>
       </c>
-      <c r="T19" s="5">
+      <c r="T19" s="6">
         <v>3.54338636363636</v>
       </c>
     </row>
@@ -2413,20 +2435,20 @@
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="5">
         <v>6.7654</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="6">
         <v>1.19137571428571</v>
       </c>
-      <c r="D20" s="5">
-        <v>2.13177954545454</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D20" s="6">
+        <v>2.1581251</v>
+      </c>
+      <c r="E20" s="6">
         <v>1.2235</v>
       </c>
-      <c r="F20" s="5">
-        <v>1.04181818181818</v>
+      <c r="F20" s="6">
+        <v>1.15571428571429</v>
       </c>
       <c r="G20" s="1">
         <v>53.7</v>
@@ -2437,37 +2459,37 @@
       <c r="I20" s="1">
         <v>7.75</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="9">
         <v>8.6</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="10">
         <v>8.5</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="11">
         <v>11</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="6">
         <v>7.6</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="12">
         <v>1.5</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="6">
         <v>5.5</v>
       </c>
       <c r="P20">
         <v>12.2352464104319</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="Q20" s="12">
         <v>15</v>
       </c>
-      <c r="R20" s="10">
+      <c r="R20" s="12">
         <v>9.1</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20" s="6">
         <v>3.31852380952381</v>
       </c>
-      <c r="T20" s="5">
+      <c r="T20" s="6">
         <v>3.43119523809524</v>
       </c>
     </row>
@@ -2475,20 +2497,20 @@
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="5">
         <v>6.6736</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="6">
         <v>1.19780318181818</v>
       </c>
-      <c r="D21" s="5">
-        <v>2.1581251</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="D21" s="6">
+        <v>2.19140769565217</v>
+      </c>
+      <c r="E21" s="6">
         <v>1.22913043478261</v>
       </c>
-      <c r="F21" s="5">
-        <v>1.15571428571429</v>
+      <c r="F21" s="6">
+        <v>1.15608695652174</v>
       </c>
       <c r="G21" s="1">
         <v>53.6</v>
@@ -2499,37 +2521,37 @@
       <c r="I21" s="1">
         <v>7.53</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="9">
         <v>8.3</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="10">
         <v>7.9</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="11">
         <v>10.4</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="6">
         <v>6.4</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="12">
         <v>1.4</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="6">
         <v>5.5</v>
       </c>
       <c r="P21">
         <v>12.6544695699092</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="Q21" s="12">
         <v>15.3</v>
       </c>
-      <c r="R21" s="10">
+      <c r="R21" s="12">
         <v>8.9</v>
       </c>
-      <c r="S21" s="5">
+      <c r="S21" s="6">
         <v>3.5497347826087</v>
       </c>
-      <c r="T21" s="5">
+      <c r="T21" s="6">
         <v>3.35553913043478</v>
       </c>
     </row>
@@ -2537,20 +2559,20 @@
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="5">
         <v>6.5634</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="6">
         <v>1.19674714285714</v>
       </c>
-      <c r="D22" s="5">
-        <v>2.19140769565217</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="D22" s="6">
+        <v>2.2173414</v>
+      </c>
+      <c r="E22" s="6">
         <v>1.28</v>
       </c>
-      <c r="F22" s="5">
-        <v>1.15608695652174</v>
+      <c r="F22" s="6">
+        <v>1.1552380952381</v>
       </c>
       <c r="G22" s="1">
         <v>54</v>
@@ -2561,37 +2583,37 @@
       <c r="I22" s="1">
         <v>7.15</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="9">
         <v>7.8</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="10">
         <v>7.9</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="11">
         <v>10.1</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="6">
         <v>6</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N22" s="12">
         <v>1.8</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="6">
         <v>6.3</v>
       </c>
       <c r="P22">
         <v>12.521550733019</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="Q22" s="12">
         <v>14</v>
       </c>
-      <c r="R22" s="10">
+      <c r="R22" s="12">
         <v>8.6</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="6">
         <v>3.46595909090909</v>
       </c>
-      <c r="T22" s="5">
+      <c r="T22" s="6">
         <v>3.46245454545455</v>
       </c>
     </row>
@@ -2599,20 +2621,20 @@
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="5">
         <v>6.6154</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="6">
         <v>1.20406090909091</v>
       </c>
-      <c r="D23" s="5">
-        <v>2.2173414</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="D23" s="6">
+        <v>2.30362372727273</v>
+      </c>
+      <c r="E23" s="6">
         <v>1.39761904761905</v>
       </c>
-      <c r="F23" s="5">
-        <v>1.1552380952381</v>
+      <c r="F23" s="6">
+        <v>1.15590909090909</v>
       </c>
       <c r="G23" s="1">
         <v>53.9</v>
@@ -2623,37 +2645,37 @@
       <c r="I23" s="1">
         <v>7.24</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="9">
         <v>7.5</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="10">
         <v>8.1</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="11">
         <v>10.3</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="6">
         <v>6.6</v>
       </c>
-      <c r="N23" s="10">
+      <c r="N23" s="12">
         <v>1.6</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="6">
         <v>6.9</v>
       </c>
       <c r="P23">
         <v>12.5277514225359</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="12">
         <v>14</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="12">
         <v>9</v>
       </c>
-      <c r="S23" s="5">
+      <c r="S23" s="6">
         <v>3.36208235294118</v>
       </c>
-      <c r="T23" s="5">
+      <c r="T23" s="6">
         <v>3.50142941176471</v>
       </c>
     </row>
@@ -2661,19 +2683,19 @@
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="5">
         <v>6.6186</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="6">
         <v>1.20365636363636</v>
       </c>
-      <c r="D24" s="5">
-        <v>2.30362372727273</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="D24" s="6">
+        <v>2.35579295238095</v>
+      </c>
+      <c r="E24" s="6">
         <v>1.56</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="6">
         <v>1.15590909090909</v>
       </c>
       <c r="G24" s="1">
@@ -2685,37 +2707,37 @@
       <c r="I24" s="1">
         <v>7.14</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="9">
         <v>7.3</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="10">
         <v>7.8</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="11">
         <v>10</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="6">
         <v>6.2</v>
       </c>
-      <c r="N24" s="10">
+      <c r="N24" s="12">
         <v>1.9</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="6">
         <v>6.9</v>
       </c>
       <c r="P24">
         <v>12.5510709822754</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="Q24" s="12">
         <v>13</v>
       </c>
-      <c r="R24" s="10">
+      <c r="R24" s="12">
         <v>8.9</v>
       </c>
-      <c r="S24" s="5">
+      <c r="S24" s="6">
         <v>3.47344545454545</v>
       </c>
-      <c r="T24" s="5">
+      <c r="T24" s="6">
         <v>3.61950454545455</v>
       </c>
     </row>
@@ -2723,20 +2745,20 @@
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="5">
         <v>6.5942</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="6">
         <v>1.39131157894737</v>
       </c>
-      <c r="D25" s="5">
-        <v>2.35579295238095</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="D25" s="6">
+        <v>2.4545384</v>
+      </c>
+      <c r="E25" s="6">
         <v>1.7005</v>
       </c>
-      <c r="F25" s="5">
-        <v>1.15590909090909</v>
+      <c r="F25" s="6">
+        <v>1.30428571428571</v>
       </c>
       <c r="G25" s="1">
         <v>54.1</v>
@@ -2747,37 +2769,37 @@
       <c r="I25" s="1">
         <v>7.59</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="9">
         <v>7.2</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="10">
         <v>7.5</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="11">
         <v>10.2</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="6">
         <v>6.1</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N25" s="12">
         <v>1.7</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="6">
         <v>5.8</v>
       </c>
       <c r="P25">
         <v>12.1858212930223</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q25" s="12">
         <v>12.7</v>
       </c>
-      <c r="R25" s="10">
+      <c r="R25" s="12">
         <v>9.1</v>
       </c>
-      <c r="S25" s="5">
+      <c r="S25" s="6">
         <v>3.69405238095238</v>
       </c>
-      <c r="T25" s="5">
+      <c r="T25" s="6">
         <v>3.76042173913043</v>
       </c>
     </row>
@@ -2785,20 +2807,20 @@
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="5">
         <v>6.4364</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="6">
         <v>1.46756318181818</v>
       </c>
-      <c r="D26" s="5">
-        <v>2.4545384</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="D26" s="6">
+        <v>2.58040176190476</v>
+      </c>
+      <c r="E26" s="6">
         <v>1.80285714285714</v>
       </c>
-      <c r="F26" s="5">
-        <v>1.30428571428571</v>
+      <c r="F26" s="6">
+        <v>1.41260869565217</v>
       </c>
       <c r="G26" s="1">
         <v>54.3</v>
@@ -2809,37 +2831,37 @@
       <c r="I26" s="1">
         <v>7.9</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="9">
         <v>7.2</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="10">
         <v>7</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="11">
         <v>9.4</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="6">
         <v>6.2</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N26" s="12">
         <v>1.8</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="6">
         <v>4.9</v>
       </c>
       <c r="P26">
         <v>11.9009712719183</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="Q26" s="12">
         <v>11.8</v>
       </c>
-      <c r="R26" s="10">
+      <c r="R26" s="12">
         <v>8.1</v>
       </c>
-      <c r="S26" s="5">
+      <c r="S26" s="6">
         <v>3.23482272727273</v>
       </c>
-      <c r="T26" s="5">
+      <c r="T26" s="6">
         <v>3.55728181818182</v>
       </c>
     </row>
@@ -2847,20 +2869,20 @@
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="5">
         <v>6.3162</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="6">
         <v>1.471221</v>
       </c>
-      <c r="D27" s="5">
-        <v>2.58040176190476</v>
-      </c>
-      <c r="E27" s="5">
+      <c r="D27" s="6">
+        <v>2.49815452631579</v>
+      </c>
+      <c r="E27" s="6">
         <v>1.96368421052632</v>
       </c>
-      <c r="F27" s="5">
-        <v>1.41260869565217</v>
+      <c r="F27" s="6">
+        <v>1.4165</v>
       </c>
       <c r="G27" s="1">
         <v>54.6</v>
@@ -2871,37 +2893,37 @@
       <c r="I27" s="1">
         <v>10.65</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="9">
         <v>7.9</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="10">
         <v>9.9</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="11">
         <v>9.7</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="6">
         <v>15.434501</v>
       </c>
-      <c r="N27" s="10">
+      <c r="N27" s="12">
         <v>1.5</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="6">
         <v>4.3</v>
       </c>
       <c r="P27">
         <v>11.2983137636896</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="Q27" s="12">
         <v>15</v>
       </c>
-      <c r="R27" s="10">
+      <c r="R27" s="12">
         <v>8.6</v>
       </c>
-      <c r="S27" s="5">
+      <c r="S27" s="6">
         <v>3.0728</v>
       </c>
-      <c r="T27" s="5">
+      <c r="T27" s="6">
         <v>3.37787647058823</v>
       </c>
     </row>
@@ -2909,20 +2931,20 @@
       <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="5">
         <v>6.322</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="6">
         <v>1.60061857142857</v>
       </c>
-      <c r="D28" s="5">
-        <v>2.49815452631579</v>
-      </c>
-      <c r="E28" s="5">
+      <c r="D28" s="6">
+        <v>2.45821704761905</v>
+      </c>
+      <c r="E28" s="6">
         <v>2.06285714285714</v>
       </c>
-      <c r="F28" s="5">
-        <v>1.4165</v>
+      <c r="F28" s="6">
+        <v>1.50545454545455</v>
       </c>
       <c r="G28" s="1">
         <v>54.8</v>
@@ -2933,37 +2955,37 @@
       <c r="I28" s="1">
         <v>23.7</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="9">
         <v>7.9</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="10">
         <v>9.9</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="11">
         <v>9.7</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="6">
         <v>-2.119883</v>
       </c>
-      <c r="N28" s="10">
+      <c r="N28" s="12">
         <v>2.9</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="6">
         <v>3.7</v>
       </c>
       <c r="P28">
         <v>11.2519427311054</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="Q28" s="12">
         <v>8.5</v>
       </c>
-      <c r="R28" s="10">
+      <c r="R28" s="12">
         <v>8.8</v>
       </c>
-      <c r="S28" s="5">
+      <c r="S28" s="6">
         <v>3.28926818181818</v>
       </c>
-      <c r="T28" s="5">
+      <c r="T28" s="6">
         <v>3.28962727272727</v>
       </c>
     </row>
@@ -2971,20 +2993,20 @@
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="5">
         <v>6.2975</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="6">
         <v>1.743283</v>
       </c>
-      <c r="D29" s="5">
-        <v>2.45821704761905</v>
-      </c>
-      <c r="E29" s="5">
+      <c r="D29" s="6">
+        <v>2.43042128571429</v>
+      </c>
+      <c r="E29" s="6">
         <v>2.15380952380952</v>
       </c>
-      <c r="F29" s="5">
-        <v>1.50545454545455</v>
+      <c r="F29" s="6">
+        <v>1.69238095238095</v>
       </c>
       <c r="G29" s="1">
         <v>53.3</v>
@@ -2995,37 +3017,37 @@
       <c r="I29" s="1">
         <v>13.7</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="9">
         <v>7.5</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="10">
         <v>10.4</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="11">
         <v>10.1</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="6">
         <v>6</v>
       </c>
-      <c r="N29" s="10">
+      <c r="N29" s="12">
         <v>2.1</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="6">
         <v>3.1</v>
       </c>
       <c r="P29">
         <v>10.6871480748431</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="Q29" s="12">
         <v>7.1</v>
       </c>
-      <c r="R29" s="10">
+      <c r="R29" s="12">
         <v>8.2</v>
       </c>
-      <c r="S29" s="5">
+      <c r="S29" s="6">
         <v>3.65745</v>
       </c>
-      <c r="T29" s="5">
+      <c r="T29" s="6">
         <v>3.128715</v>
       </c>
     </row>
@@ -3033,20 +3055,20 @@
       <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="5">
         <v>6.3758</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="6">
         <v>1.75245333333333</v>
       </c>
-      <c r="D30" s="5">
-        <v>2.43042128571429</v>
-      </c>
-      <c r="E30" s="5">
+      <c r="D30" s="6">
+        <v>2.45725322727273</v>
+      </c>
+      <c r="E30" s="6">
         <v>2.27363636363636</v>
       </c>
-      <c r="F30" s="5">
-        <v>1.69238095238095</v>
+      <c r="F30" s="6">
+        <v>1.7</v>
       </c>
       <c r="G30" s="1">
         <v>53.9</v>
@@ -3057,37 +3079,37 @@
       <c r="I30" s="1">
         <v>13.22</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="9">
         <v>7</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="10">
         <v>10.3</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="11">
         <v>9.4</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="6">
         <v>7</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="12">
         <v>1.8</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O30" s="6">
         <v>3.4</v>
       </c>
       <c r="P30">
         <v>10.7051852491034</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q30" s="12">
         <v>7.2</v>
       </c>
-      <c r="R30" s="10">
+      <c r="R30" s="12">
         <v>8.3</v>
       </c>
-      <c r="S30" s="5">
+      <c r="S30" s="6">
         <v>3.18525454545455</v>
       </c>
-      <c r="T30" s="5">
+      <c r="T30" s="6">
         <v>3.0392</v>
       </c>
     </row>
@@ -3095,20 +3117,20 @@
       <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="5">
         <v>6.4556</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="6">
         <v>1.91705714285714</v>
       </c>
-      <c r="D31" s="5">
-        <v>2.45725322727273</v>
-      </c>
-      <c r="E31" s="5">
+      <c r="D31" s="6">
+        <v>2.47901080952381</v>
+      </c>
+      <c r="E31" s="6">
         <v>2.32809523809524</v>
       </c>
-      <c r="F31" s="5">
-        <v>1.7</v>
+      <c r="F31" s="6">
+        <v>1.82095238095238</v>
       </c>
       <c r="G31" s="1">
         <v>54</v>
@@ -3119,37 +3141,37 @@
       <c r="I31" s="1">
         <v>12.92</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="9">
         <v>6.1</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="10">
         <v>10.2</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="11">
         <v>8.5</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="6">
         <v>6.8</v>
       </c>
-      <c r="N31" s="10">
+      <c r="N31" s="12">
         <v>1.8</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="6">
         <v>4.1</v>
       </c>
       <c r="P31">
         <v>10.4551861439073</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="Q31" s="12">
         <v>6</v>
       </c>
-      <c r="R31" s="10">
+      <c r="R31" s="12">
         <v>8.3</v>
       </c>
-      <c r="S31" s="5">
+      <c r="S31" s="6">
         <v>3.34018</v>
       </c>
-      <c r="T31" s="5">
+      <c r="T31" s="6">
         <v>3.22782</v>
       </c>
     </row>
@@ -3157,20 +3179,20 @@
       <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="5">
         <v>6.7034</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="6">
         <v>1.95878136363636</v>
       </c>
-      <c r="D32" s="5">
-        <v>2.47901080952381</v>
-      </c>
-      <c r="E32" s="5">
+      <c r="D32" s="6">
+        <v>2.49782314285714</v>
+      </c>
+      <c r="E32" s="6">
         <v>2.38761904761905</v>
       </c>
-      <c r="F32" s="5">
-        <v>1.82095238095238</v>
+      <c r="F32" s="6">
+        <v>1.91</v>
       </c>
       <c r="G32" s="1">
         <v>54.2</v>
@@ -3181,37 +3203,37 @@
       <c r="I32" s="1">
         <v>12.51</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="9">
         <v>6</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="10">
         <v>9.7</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="11">
         <v>9</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="6">
         <v>6</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="12">
         <v>1.9</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="6">
         <v>4.7</v>
       </c>
       <c r="P32">
         <v>10.0251887768285</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="Q32" s="12">
         <v>6.6</v>
       </c>
-      <c r="R32" s="10">
+      <c r="R32" s="12">
         <v>8</v>
       </c>
-      <c r="S32" s="5">
+      <c r="S32" s="6">
         <v>2.73395454545455</v>
       </c>
-      <c r="T32" s="5">
+      <c r="T32" s="6">
         <v>3.02405909090909</v>
       </c>
     </row>
@@ -3219,20 +3241,20 @@
       <c r="A33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="5">
         <v>6.8433</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="6">
         <v>1.95413772727273</v>
       </c>
-      <c r="D33" s="5">
-        <v>2.49782314285714</v>
-      </c>
-      <c r="E33" s="5">
+      <c r="D33" s="6">
+        <v>2.56299882608696</v>
+      </c>
+      <c r="E33" s="6">
         <v>2.44565217391304</v>
       </c>
-      <c r="F33" s="5">
-        <v>1.91</v>
+      <c r="F33" s="6">
+        <v>1.91478260869565</v>
       </c>
       <c r="G33" s="1">
         <v>53.7</v>
@@ -3243,37 +3265,37 @@
       <c r="I33" s="1">
         <v>12.37</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="9">
         <v>5.5</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="10">
         <v>10.2</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="11">
         <v>8.8</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="6">
         <v>6</v>
       </c>
-      <c r="N33" s="10">
+      <c r="N33" s="12">
         <v>2.1</v>
       </c>
-      <c r="O33" s="5">
+      <c r="O33" s="6">
         <v>4.6</v>
       </c>
       <c r="P33">
         <v>9.8397156534991</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="Q33" s="12">
         <v>5.1</v>
       </c>
-      <c r="R33" s="10">
+      <c r="R33" s="12">
         <v>8.5</v>
       </c>
-      <c r="S33" s="5">
+      <c r="S33" s="6">
         <v>2.55706956521739</v>
       </c>
-      <c r="T33" s="5">
+      <c r="T33" s="6">
         <v>2.80668695652174</v>
       </c>
     </row>
@@ -3281,20 +3303,20 @@
       <c r="A34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="5">
         <v>6.8445</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="6">
         <v>2.0246305</v>
       </c>
-      <c r="D34" s="5">
-        <v>2.56299882608696</v>
-      </c>
-      <c r="E34" s="5">
+      <c r="D34" s="6">
+        <v>2.62326678947368</v>
+      </c>
+      <c r="E34" s="6">
         <v>2.5578947368421</v>
       </c>
-      <c r="F34" s="5">
-        <v>1.91478260869565</v>
+      <c r="F34" s="6">
+        <v>1.947</v>
       </c>
       <c r="G34" s="1">
         <v>53.4</v>
@@ -3305,37 +3327,37 @@
       <c r="I34" s="1">
         <v>11.97</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="9">
         <v>5.3</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="10">
         <v>10.1</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="11">
         <v>9</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="6">
         <v>6.1</v>
       </c>
-      <c r="N34" s="10">
+      <c r="N34" s="12">
         <v>2.3</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="6">
         <v>4.1</v>
       </c>
       <c r="P34">
         <v>9.70284881003194</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="Q34" s="12">
         <v>3.9</v>
       </c>
-      <c r="R34" s="10">
+      <c r="R34" s="12">
         <v>8.2</v>
       </c>
-      <c r="S34" s="5">
+      <c r="S34" s="6">
         <v>2.74050476190476</v>
       </c>
-      <c r="T34" s="5">
+      <c r="T34" s="6">
         <v>2.91980952380952</v>
       </c>
     </row>
@@ -3343,20 +3365,20 @@
       <c r="A35" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="5">
         <v>6.9264</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="6">
         <v>2.21278130434783</v>
       </c>
-      <c r="D35" s="5">
-        <v>2.62326678947368</v>
-      </c>
-      <c r="E35" s="5">
+      <c r="D35" s="6">
+        <v>2.56093417391304</v>
+      </c>
+      <c r="E35" s="6">
         <v>2.65181818181818</v>
       </c>
-      <c r="F35" s="5">
-        <v>1.947</v>
+      <c r="F35" s="6">
+        <v>2.18782608695652</v>
       </c>
       <c r="G35" s="1">
         <v>52.8</v>
@@ -3367,37 +3389,37 @@
       <c r="I35" s="1">
         <v>12.21</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="9">
         <v>5.4</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="10">
         <v>9.9</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="11">
         <v>9.2</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="6">
         <v>5.8</v>
       </c>
-      <c r="N35" s="10">
+      <c r="N35" s="12">
         <v>2.5</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O35" s="6">
         <v>3.6</v>
       </c>
       <c r="P35">
         <v>9.22515483539959</v>
       </c>
-      <c r="Q35" s="10">
+      <c r="Q35" s="12">
         <v>4</v>
       </c>
-      <c r="R35" s="10">
+      <c r="R35" s="12">
         <v>8.3</v>
       </c>
-      <c r="S35" s="5">
+      <c r="S35" s="6">
         <v>2.65309444444444</v>
       </c>
-      <c r="T35" s="5">
+      <c r="T35" s="6">
         <v>2.88184444444444</v>
       </c>
     </row>
@@ -3405,20 +3427,20 @@
       <c r="A36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="5">
         <v>6.9351</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="6">
         <v>2.21821227272727</v>
       </c>
-      <c r="D36" s="5">
-        <v>2.56093417391304</v>
-      </c>
-      <c r="E36" s="5">
+      <c r="D36" s="6">
+        <v>2.52586752380952</v>
+      </c>
+      <c r="E36" s="6">
         <v>2.6985</v>
       </c>
-      <c r="F36" s="5">
-        <v>2.18782608695652</v>
+      <c r="F36" s="6">
+        <v>2.19863636363636</v>
       </c>
       <c r="G36" s="1">
         <v>53</v>
@@ -3429,37 +3451,37 @@
       <c r="I36" s="1">
         <v>12.42</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="9">
         <v>5.7</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36" s="10">
         <v>9.7</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="11">
         <v>8.6</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="6">
         <v>5.9</v>
       </c>
-      <c r="N36" s="10">
+      <c r="N36" s="12">
         <v>2.5</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="6">
         <v>3.3</v>
       </c>
       <c r="P36">
         <v>8.91025891264407</v>
       </c>
-      <c r="Q36" s="10">
+      <c r="Q36" s="12">
         <v>2.7</v>
       </c>
-      <c r="R36" s="10">
+      <c r="R36" s="12">
         <v>8</v>
       </c>
-      <c r="S36" s="5">
+      <c r="S36" s="6">
         <v>2.68796363636364</v>
       </c>
-      <c r="T36" s="5">
+      <c r="T36" s="6">
         <v>2.58620454545454</v>
       </c>
     </row>
@@ -3467,20 +3489,20 @@
       <c r="A37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="5">
         <v>6.8853</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="6">
         <v>2.30714368421053</v>
       </c>
-      <c r="D37" s="5">
-        <v>2.52586752380952</v>
-      </c>
-      <c r="E37" s="5">
+      <c r="D37" s="6">
+        <v>2.38055452631579</v>
+      </c>
+      <c r="E37" s="6">
         <v>2.65526315789474</v>
       </c>
-      <c r="F37" s="5">
-        <v>2.19863636363636</v>
+      <c r="F37" s="6">
+        <v>2.27333333333333</v>
       </c>
       <c r="G37" s="1">
         <v>53.2</v>
@@ -3491,37 +3513,37 @@
       <c r="I37" s="1">
         <v>11.52</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="9">
         <v>5.9</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K37" s="10">
         <v>9.7</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="11">
         <v>8.1</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="6">
         <v>5.4</v>
       </c>
-      <c r="N37" s="10">
+      <c r="N37" s="12">
         <v>2.2</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37" s="6">
         <v>2.7</v>
       </c>
       <c r="P37">
         <v>8.73101597704378</v>
       </c>
-      <c r="Q37" s="10">
+      <c r="Q37" s="12">
         <v>1.5</v>
       </c>
-      <c r="R37" s="10">
+      <c r="R37" s="12">
         <v>8</v>
       </c>
-      <c r="S37" s="5">
+      <c r="S37" s="6">
         <v>3.13809523809524</v>
       </c>
-      <c r="T37" s="5">
+      <c r="T37" s="6">
         <v>2.56061304347826</v>
       </c>
     </row>
@@ -3529,20 +3551,20 @@
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="5">
         <v>6.7897</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="6">
         <v>2.40851636363636</v>
       </c>
-      <c r="D38" s="5">
-        <v>2.38055452631579</v>
-      </c>
-      <c r="E38" s="5">
+      <c r="D38" s="6">
+        <v>2.41577952380952</v>
+      </c>
+      <c r="E38" s="6">
         <v>2.57952380952381</v>
       </c>
-      <c r="F38" s="5">
-        <v>2.27333333333333</v>
+      <c r="F38" s="6">
+        <v>2.4</v>
       </c>
       <c r="G38" s="1">
         <v>52.7</v>
@@ -3553,37 +3575,37 @@
       <c r="I38" s="1">
         <v>9.87</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="9">
         <v>5.9</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K38" s="10">
         <v>9.5</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L38" s="11">
         <v>8.160814</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="6">
         <v>5.7</v>
       </c>
-      <c r="N38" s="10">
+      <c r="N38" s="12">
         <v>1.9</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O38" s="6">
         <v>0.9</v>
       </c>
       <c r="P38">
         <v>8.69723252621954</v>
       </c>
-      <c r="Q38" s="10">
+      <c r="Q38" s="12">
         <v>1.5</v>
       </c>
-      <c r="R38" s="10">
+      <c r="R38" s="12">
         <v>8.1</v>
       </c>
-      <c r="S38" s="5">
+      <c r="S38" s="6">
         <v>2.58288636363636</v>
       </c>
-      <c r="T38" s="5">
+      <c r="T38" s="6">
         <v>2.40186818181818</v>
       </c>
     </row>
@@ -3591,19 +3613,19 @@
       <c r="A39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="5">
         <v>6.7364</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="6">
         <v>2.41189</v>
       </c>
-      <c r="D39" s="5">
-        <v>2.41577952380952</v>
-      </c>
-      <c r="E39" s="5">
+      <c r="D39" s="6">
+        <v>2.56055268421053</v>
+      </c>
+      <c r="E39" s="6">
         <v>2.55052631578947</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="6">
         <v>2.4</v>
       </c>
       <c r="G39" s="1">
@@ -3615,37 +3637,37 @@
       <c r="I39" s="1">
         <v>9.2</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="9">
         <v>6.1</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K39" s="10">
         <v>11.6</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L39" s="11">
         <v>8.2</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="6">
         <v>6.797753</v>
       </c>
-      <c r="N39" s="10">
+      <c r="N39" s="12">
         <v>1.7</v>
       </c>
-      <c r="O39" s="5">
+      <c r="O39" s="6">
         <v>0.1</v>
       </c>
       <c r="P39">
         <v>9.302636153642</v>
       </c>
-      <c r="Q39" s="10">
+      <c r="Q39" s="12">
         <v>0.4</v>
       </c>
-      <c r="R39" s="10">
+      <c r="R39" s="12">
         <v>8.4</v>
       </c>
-      <c r="S39" s="5">
+      <c r="S39" s="6">
         <v>2.5865</v>
       </c>
-      <c r="T39" s="5">
+      <c r="T39" s="6">
         <v>2.33954117647059</v>
       </c>
     </row>
@@ -3653,20 +3675,20 @@
       <c r="A40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="5">
         <v>6.7093</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="6">
         <v>2.41054428571429</v>
       </c>
-      <c r="D40" s="5">
-        <v>2.56055268421053</v>
-      </c>
-      <c r="E40" s="5">
+      <c r="D40" s="6">
+        <v>2.5722620952381</v>
+      </c>
+      <c r="E40" s="6">
         <v>2.49095238095238</v>
       </c>
-      <c r="F40" s="5">
-        <v>2.4</v>
+      <c r="F40" s="6">
+        <v>2.40380952380952</v>
       </c>
       <c r="G40" s="1">
         <v>52.6</v>
@@ -3677,37 +3699,37 @@
       <c r="I40" s="1">
         <v>-4.6</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="9">
         <v>6.1</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K40" s="10">
         <v>11.6</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="11">
         <v>8.2</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="6">
         <v>3.360717</v>
       </c>
-      <c r="N40" s="10">
+      <c r="N40" s="12">
         <v>1.5</v>
       </c>
-      <c r="O40" s="5">
+      <c r="O40" s="6">
         <v>0.1</v>
       </c>
       <c r="P40">
         <v>8.89435301330195</v>
       </c>
-      <c r="Q40" s="10">
+      <c r="Q40" s="12">
         <v>2</v>
       </c>
-      <c r="R40" s="10">
+      <c r="R40" s="12">
         <v>8</v>
       </c>
-      <c r="S40" s="5">
+      <c r="S40" s="6">
         <v>2.78650476190476</v>
       </c>
-      <c r="T40" s="5">
+      <c r="T40" s="6">
         <v>2.45860952380952</v>
       </c>
     </row>
@@ -3715,20 +3737,20 @@
       <c r="A41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="5">
         <v>6.7151</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="6">
         <v>2.416945</v>
       </c>
-      <c r="D41" s="5">
-        <v>2.5722620952381</v>
-      </c>
-      <c r="E41" s="5">
+      <c r="D41" s="6">
+        <v>2.64015771428571</v>
+      </c>
+      <c r="E41" s="6">
         <v>2.42476190476191</v>
       </c>
-      <c r="F41" s="5">
-        <v>2.40380952380952</v>
+      <c r="F41" s="6">
+        <v>2.42318181818182</v>
       </c>
       <c r="G41" s="1">
         <v>52.7</v>
@@ -3739,37 +3761,37 @@
       <c r="I41" s="1">
         <v>1.3</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="9">
         <v>6.3</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K41" s="10">
         <v>11.8</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L41" s="11">
         <v>8.7</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="6">
         <v>8.5</v>
       </c>
-      <c r="N41" s="10">
+      <c r="N41" s="12">
         <v>2.3</v>
       </c>
-      <c r="O41" s="5">
+      <c r="O41" s="6">
         <v>0.4</v>
       </c>
       <c r="P41">
         <v>9.40607942779237</v>
       </c>
-      <c r="Q41" s="10">
+      <c r="Q41" s="12">
         <v>4.6</v>
       </c>
-      <c r="R41" s="10">
+      <c r="R41" s="12">
         <v>8.6</v>
       </c>
-      <c r="S41" s="5">
+      <c r="S41" s="6">
         <v>2.74781363636364</v>
       </c>
-      <c r="T41" s="5">
+      <c r="T41" s="6">
         <v>2.59090454545454</v>
       </c>
     </row>
@@ -3777,20 +3799,20 @@
       <c r="A42" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="5">
         <v>6.8524</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="6">
         <v>2.39484238095238</v>
       </c>
-      <c r="D42" s="5">
-        <v>2.64015771428571</v>
-      </c>
-      <c r="E42" s="5">
+      <c r="D42" s="6">
+        <v>2.57447886363636</v>
+      </c>
+      <c r="E42" s="6">
         <v>2.34045454545455</v>
       </c>
-      <c r="F42" s="5">
-        <v>2.42318181818182</v>
+      <c r="F42" s="6">
+        <v>2.39217391304348</v>
       </c>
       <c r="G42" s="1">
         <v>52.1</v>
@@ -3801,37 +3823,37 @@
       <c r="I42" s="1">
         <v>0.2</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="9">
         <v>6.1</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="10">
         <v>11.9</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L42" s="11">
         <v>7.2</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="6">
         <v>5.4</v>
       </c>
-      <c r="N42" s="10">
+      <c r="N42" s="12">
         <v>2.5</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42" s="6">
         <v>0.9</v>
       </c>
       <c r="P42">
         <v>9.12683205459022</v>
       </c>
-      <c r="Q42" s="10">
+      <c r="Q42" s="12">
         <v>2.9</v>
       </c>
-      <c r="R42" s="10">
+      <c r="R42" s="12">
         <v>8.5</v>
       </c>
-      <c r="S42" s="5">
+      <c r="S42" s="6">
         <v>2.64596190476191</v>
       </c>
-      <c r="T42" s="5">
+      <c r="T42" s="6">
         <v>2.68894285714286</v>
       </c>
     </row>
@@ -3839,20 +3861,20 @@
       <c r="A43" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="5">
         <v>6.882</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="6">
         <v>2.3730205</v>
       </c>
-      <c r="D43" s="5">
-        <v>2.57447886363636</v>
-      </c>
-      <c r="E43" s="5">
+      <c r="D43" s="6">
+        <v>2.6160101</v>
+      </c>
+      <c r="E43" s="6">
         <v>1.995</v>
       </c>
-      <c r="F43" s="5">
-        <v>2.39217391304348</v>
+      <c r="F43" s="6">
+        <v>2.3755</v>
       </c>
       <c r="G43" s="1">
         <v>51.2</v>
@@ -3863,37 +3885,37 @@
       <c r="I43" s="1">
         <v>0.4</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="9">
         <v>5.6</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K43" s="10">
         <v>11.2</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L43" s="11">
         <v>8.6</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="6">
         <v>5</v>
       </c>
-      <c r="N43" s="10">
+      <c r="N43" s="12">
         <v>2.7</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O43" s="6">
         <v>0.6</v>
       </c>
       <c r="P43">
         <v>9.3407158298084</v>
       </c>
-      <c r="Q43" s="10">
+      <c r="Q43" s="12">
         <v>3.4</v>
       </c>
-      <c r="R43" s="10">
+      <c r="R43" s="12">
         <v>8.5</v>
       </c>
-      <c r="S43" s="5">
+      <c r="S43" s="6">
         <v>2.49738421052632</v>
       </c>
-      <c r="T43" s="5">
+      <c r="T43" s="6">
         <v>2.68252105263158</v>
       </c>
     </row>
@@ -3901,20 +3923,20 @@
       <c r="A44" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="5">
         <v>6.8752</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="6">
         <v>2.34739347826087</v>
       </c>
-      <c r="D44" s="5">
-        <v>2.6160101</v>
-      </c>
-      <c r="E44" s="5">
+      <c r="D44" s="6">
+        <v>2.70891868181818</v>
+      </c>
+      <c r="E44" s="6">
         <v>1.96227272727273</v>
       </c>
-      <c r="F44" s="5">
-        <v>2.3755</v>
+      <c r="F44" s="6">
+        <v>2.40304347826087</v>
       </c>
       <c r="G44" s="1">
         <v>51.2</v>
@@ -3925,37 +3947,37 @@
       <c r="I44" s="1">
         <v>0.1</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="9">
         <v>5.8</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K44" s="10">
         <v>10.9</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L44" s="11">
         <v>9.8</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="6">
         <v>6.3</v>
       </c>
-      <c r="N44" s="10">
+      <c r="N44" s="12">
         <v>2.7</v>
       </c>
-      <c r="O44" s="5">
+      <c r="O44" s="6">
         <v>0</v>
       </c>
       <c r="P44">
         <v>9.54383455644929</v>
       </c>
-      <c r="Q44" s="10">
+      <c r="Q44" s="12">
         <v>4.4</v>
       </c>
-      <c r="R44" s="10">
+      <c r="R44" s="12">
         <v>8.5</v>
       </c>
-      <c r="S44" s="5">
+      <c r="S44" s="6">
         <v>2.61896956521739</v>
       </c>
-      <c r="T44" s="5">
+      <c r="T44" s="6">
         <v>2.62163043478261</v>
       </c>
     </row>
@@ -3963,20 +3985,20 @@
       <c r="A45" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="5">
         <v>7.0214</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="6">
         <v>2.14275285714286</v>
       </c>
-      <c r="D45" s="5">
-        <v>2.70891868181818</v>
-      </c>
-      <c r="E45" s="5">
+      <c r="D45" s="6">
+        <v>2.6058225</v>
+      </c>
+      <c r="E45" s="6">
         <v>1.77227272727273</v>
       </c>
-      <c r="F45" s="5">
-        <v>2.40304347826087</v>
+      <c r="F45" s="6">
+        <v>2.125</v>
       </c>
       <c r="G45" s="1">
         <v>51.6</v>
@@ -3987,37 +4009,37 @@
       <c r="I45" s="1">
         <v>0.6</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="9">
         <v>5.7</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K45" s="10">
         <v>10.6</v>
       </c>
-      <c r="L45" s="9">
+      <c r="L45" s="11">
         <v>7.6</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="6">
         <v>4.8</v>
       </c>
-      <c r="N45" s="10">
+      <c r="N45" s="12">
         <v>2.8</v>
       </c>
-      <c r="O45" s="5">
+      <c r="O45" s="6">
         <v>-0.3</v>
       </c>
       <c r="P45">
         <v>9.28638173756613</v>
       </c>
-      <c r="Q45" s="10">
+      <c r="Q45" s="12">
         <v>3.1</v>
       </c>
-      <c r="R45" s="10">
+      <c r="R45" s="12">
         <v>8.1</v>
       </c>
-      <c r="S45" s="5">
+      <c r="S45" s="6">
         <v>2.77987727272727</v>
       </c>
-      <c r="T45" s="5">
+      <c r="T45" s="6">
         <v>2.60138181818182</v>
       </c>
     </row>
@@ -4025,20 +4047,20 @@
       <c r="A46" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="5">
         <v>7.0785</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="6">
         <v>2.02411571428571</v>
       </c>
-      <c r="D46" s="5">
-        <v>2.6058225</v>
-      </c>
-      <c r="E46" s="5">
+      <c r="D46" s="6">
+        <v>2.6900214</v>
+      </c>
+      <c r="E46" s="6">
         <v>1.796</v>
       </c>
-      <c r="F46" s="5">
-        <v>2.125</v>
+      <c r="F46" s="6">
+        <v>2.05619047619048</v>
       </c>
       <c r="G46" s="1">
         <v>51.3</v>
@@ -4049,37 +4071,37 @@
       <c r="I46" s="1">
         <v>0.3</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="9">
         <v>5.5</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K46" s="10">
         <v>10.5</v>
       </c>
-      <c r="L46" s="9">
+      <c r="L46" s="11">
         <v>7.5</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="6">
         <v>4.4</v>
       </c>
-      <c r="N46" s="10">
+      <c r="N46" s="12">
         <v>2.8</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O46" s="6">
         <v>-0.8</v>
       </c>
       <c r="P46">
         <v>9.30986598734693</v>
       </c>
-      <c r="Q46" s="10">
+      <c r="Q46" s="12">
         <v>3.4</v>
       </c>
-      <c r="R46" s="10">
+      <c r="R46" s="12">
         <v>8.2</v>
       </c>
-      <c r="S46" s="5">
+      <c r="S46" s="6">
         <v>2.72051428571429</v>
       </c>
-      <c r="T46" s="5">
+      <c r="T46" s="6">
         <v>2.5859619047619</v>
       </c>
     </row>

--- a/中期_简单回归/data/16-19.xlsx
+++ b/中期_简单回归/data/16-19.xlsx
@@ -216,12 +216,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="###,###,###,###,##0.00_ "/>
-    <numFmt numFmtId="177" formatCode="###,###,###,###,##0.0000_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="###,###,###,###,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="###,###,###,###,##0.0000_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -272,14 +272,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -287,8 +279,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,6 +302,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -310,7 +340,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,84 +409,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,61 +436,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,19 +466,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,73 +508,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,7 +532,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,6 +639,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -656,39 +689,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,22 +722,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,10 +742,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,133 +754,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1243,7 +1243,7 @@
   <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="G2" sqref="G2:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1335,7 +1335,7 @@
         <v>0.342903225806452</v>
       </c>
       <c r="G2" s="1">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="H2" s="1">
         <v>-14.27</v>
@@ -1397,7 +1397,7 @@
         <v>0.375172413793103</v>
       </c>
       <c r="G3" s="1">
-        <v>52.6</v>
+        <v>50.8</v>
       </c>
       <c r="H3" s="1">
         <v>-19.93</v>
@@ -1459,7 +1459,7 @@
         <v>0.362258064516129</v>
       </c>
       <c r="G4" s="1">
-        <v>50.8</v>
+        <v>51.5</v>
       </c>
       <c r="H4" s="1">
         <v>-17.24</v>
@@ -1521,7 +1521,7 @@
         <v>0.365333333333333</v>
       </c>
       <c r="G5" s="1">
-        <v>51.5</v>
+        <v>51.6</v>
       </c>
       <c r="H5" s="1">
         <v>-13.94</v>
@@ -1583,7 +1583,7 @@
         <v>0.36516129032258</v>
       </c>
       <c r="G6" s="1">
-        <v>51.6</v>
+        <v>51.1</v>
       </c>
       <c r="H6" s="1">
         <v>-13.19</v>
@@ -1645,7 +1645,7 @@
         <v>0.377666666666667</v>
       </c>
       <c r="G7" s="1">
-        <v>51.1</v>
+        <v>51.2</v>
       </c>
       <c r="H7" s="1">
         <v>-10.69</v>
@@ -1707,7 +1707,7 @@
         <v>0.391612903225807</v>
       </c>
       <c r="G8" s="1">
-        <v>51.2</v>
+        <v>51.5</v>
       </c>
       <c r="H8" s="1">
         <v>-10.4</v>
@@ -1769,7 +1769,7 @@
         <v>0.396774193548387</v>
       </c>
       <c r="G9" s="1">
-        <v>51.5</v>
+        <v>51.4</v>
       </c>
       <c r="H9" s="1">
         <v>-10.74</v>
@@ -1831,7 +1831,7 @@
         <v>0.396333333333333</v>
       </c>
       <c r="G10" s="1">
-        <v>51.4</v>
+        <v>51.7</v>
       </c>
       <c r="H10" s="1">
         <v>-9.2</v>
@@ -1893,7 +1893,7 @@
         <v>0.392608695652174</v>
       </c>
       <c r="G11" s="1">
-        <v>51.7</v>
+        <v>53.3</v>
       </c>
       <c r="H11" s="1">
         <v>-8.31</v>
@@ -2017,7 +2017,7 @@
         <v>0.541363636363636</v>
       </c>
       <c r="G13" s="1">
-        <v>53.3</v>
+        <v>53.6</v>
       </c>
       <c r="H13" s="1">
         <v>-6.44</v>
@@ -2079,7 +2079,7 @@
         <v>0.650454545454546</v>
       </c>
       <c r="G14" s="1">
-        <v>53.6</v>
+        <v>53.9</v>
       </c>
       <c r="H14" s="1">
         <v>-5.46</v>
@@ -2141,7 +2141,7 @@
         <v>0.6555</v>
       </c>
       <c r="G15" s="1">
-        <v>53.9</v>
+        <v>53.4</v>
       </c>
       <c r="H15" s="1">
         <v>16.93</v>
@@ -2203,7 +2203,7 @@
         <v>0.786521739130435</v>
       </c>
       <c r="G16" s="1">
-        <v>53.4</v>
+        <v>53.7</v>
       </c>
       <c r="H16" s="1">
         <v>26.82</v>
@@ -2265,7 +2265,7 @@
         <v>0.906</v>
       </c>
       <c r="G17" s="1">
-        <v>53.7</v>
+        <v>53.6</v>
       </c>
       <c r="H17" s="1">
         <v>24.27</v>
@@ -2327,7 +2327,7 @@
         <v>0.906521739130435</v>
       </c>
       <c r="G18" s="1">
-        <v>53.6</v>
+        <v>53.8</v>
       </c>
       <c r="H18" s="1">
         <v>20.74</v>
@@ -2389,7 +2389,7 @@
         <v>1.04181818181818</v>
       </c>
       <c r="G19" s="1">
-        <v>53.8</v>
+        <v>53.7</v>
       </c>
       <c r="H19" s="1">
         <v>19.25</v>
@@ -2451,7 +2451,7 @@
         <v>1.15571428571429</v>
       </c>
       <c r="G20" s="1">
-        <v>53.7</v>
+        <v>53.6</v>
       </c>
       <c r="H20" s="1">
         <v>18.84</v>
@@ -2513,7 +2513,7 @@
         <v>1.15608695652174</v>
       </c>
       <c r="G21" s="1">
-        <v>53.6</v>
+        <v>54</v>
       </c>
       <c r="H21" s="1">
         <v>17.68</v>
@@ -2575,7 +2575,7 @@
         <v>1.1552380952381</v>
       </c>
       <c r="G22" s="1">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="H22" s="1">
         <v>17.15</v>
@@ -2637,7 +2637,7 @@
         <v>1.15590909090909</v>
       </c>
       <c r="G23" s="1">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="H23" s="1">
         <v>17.41</v>
@@ -2699,7 +2699,7 @@
         <v>1.15590909090909</v>
       </c>
       <c r="G24" s="1">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="H24" s="1">
         <v>17.41</v>
@@ -2761,7 +2761,7 @@
         <v>1.30428571428571</v>
       </c>
       <c r="G25" s="1">
-        <v>54.1</v>
+        <v>54.3</v>
       </c>
       <c r="H25" s="1">
         <v>17.46</v>
@@ -2823,7 +2823,7 @@
         <v>1.41260869565217</v>
       </c>
       <c r="G26" s="1">
-        <v>54.3</v>
+        <v>54.6</v>
       </c>
       <c r="H26" s="1">
         <v>16.11</v>
@@ -2885,7 +2885,7 @@
         <v>1.4165</v>
       </c>
       <c r="G27" s="1">
-        <v>54.6</v>
+        <v>54.8</v>
       </c>
       <c r="H27" s="1">
         <v>37.66</v>
@@ -2947,7 +2947,7 @@
         <v>1.50545454545455</v>
       </c>
       <c r="G28" s="1">
-        <v>54.8</v>
+        <v>53.3</v>
       </c>
       <c r="H28" s="1">
         <v>22.23</v>
@@ -3009,7 +3009,7 @@
         <v>1.69238095238095</v>
       </c>
       <c r="G29" s="1">
-        <v>53.3</v>
+        <v>53.9</v>
       </c>
       <c r="H29" s="1">
         <v>19.45</v>
@@ -3071,7 +3071,7 @@
         <v>1.7</v>
       </c>
       <c r="G30" s="1">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="H30" s="1">
         <v>20.16</v>
@@ -3133,7 +3133,7 @@
         <v>1.82095238095238</v>
       </c>
       <c r="G31" s="1">
-        <v>54</v>
+        <v>54.2</v>
       </c>
       <c r="H31" s="1">
         <v>21.42</v>
@@ -3195,7 +3195,7 @@
         <v>1.91</v>
       </c>
       <c r="G32" s="1">
-        <v>54.2</v>
+        <v>53.7</v>
       </c>
       <c r="H32" s="1">
         <v>20.06</v>
@@ -3257,7 +3257,7 @@
         <v>1.91478260869565</v>
       </c>
       <c r="G33" s="1">
-        <v>53.7</v>
+        <v>53.4</v>
       </c>
       <c r="H33" s="1">
         <v>21.06</v>
@@ -3319,7 +3319,7 @@
         <v>1.947</v>
       </c>
       <c r="G34" s="1">
-        <v>53.4</v>
+        <v>52.8</v>
       </c>
       <c r="H34" s="1">
         <v>21.01</v>
@@ -3381,7 +3381,7 @@
         <v>2.18782608695652</v>
       </c>
       <c r="G35" s="1">
-        <v>52.8</v>
+        <v>53</v>
       </c>
       <c r="H35" s="1">
         <v>20.17</v>
@@ -3443,7 +3443,7 @@
         <v>2.19863636363636</v>
       </c>
       <c r="G36" s="1">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="H36" s="1">
         <v>20.19</v>
@@ -3505,7 +3505,7 @@
         <v>2.27333333333333</v>
       </c>
       <c r="G37" s="1">
-        <v>53.2</v>
+        <v>52.7</v>
       </c>
       <c r="H37" s="1">
         <v>18.34</v>
@@ -3567,7 +3567,7 @@
         <v>2.4</v>
       </c>
       <c r="G38" s="1">
-        <v>52.7</v>
+        <v>52.1</v>
       </c>
       <c r="H38" s="1">
         <v>15.83</v>
@@ -3629,7 +3629,7 @@
         <v>2.4</v>
       </c>
       <c r="G39" s="1">
-        <v>52.1</v>
+        <v>52.6</v>
       </c>
       <c r="H39" s="1">
         <v>-1.3</v>
@@ -3691,7 +3691,7 @@
         <v>2.40380952380952</v>
       </c>
       <c r="G40" s="1">
-        <v>52.6</v>
+        <v>52.7</v>
       </c>
       <c r="H40" s="1">
         <v>-2.7</v>
@@ -3753,7 +3753,7 @@
         <v>2.42318181818182</v>
       </c>
       <c r="G41" s="1">
-        <v>52.7</v>
+        <v>52.1</v>
       </c>
       <c r="H41" s="1">
         <v>-4.5</v>
@@ -3815,7 +3815,7 @@
         <v>2.39217391304348</v>
       </c>
       <c r="G42" s="1">
-        <v>52.1</v>
+        <v>51.2</v>
       </c>
       <c r="H42" s="1">
         <v>-2.2</v>
@@ -3939,7 +3939,7 @@
         <v>2.40304347826087</v>
       </c>
       <c r="G44" s="1">
-        <v>51.2</v>
+        <v>51.6</v>
       </c>
       <c r="H44" s="1">
         <v>-4.2</v>
@@ -4001,7 +4001,7 @@
         <v>2.125</v>
       </c>
       <c r="G45" s="1">
-        <v>51.6</v>
+        <v>51.3</v>
       </c>
       <c r="H45" s="1">
         <v>-4.4</v>
@@ -4063,7 +4063,7 @@
         <v>2.05619047619048</v>
       </c>
       <c r="G46" s="1">
-        <v>51.3</v>
+        <v>51.2</v>
       </c>
       <c r="H46" s="1">
         <v>-4.5</v>
